--- a/ADCP Deployment Log.xlsx
+++ b/ADCP Deployment Log.xlsx
@@ -2,18 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nyx\Documents\GitHub\acdp-fuzzy-journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D45E320-C62E-4AD5-90FC-00CF7FC098DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2111D14-7F37-42E2-938E-B9D5011369DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14076" yWindow="-216" windowWidth="13356" windowHeight="8916" xr2:uid="{5913DBAB-AB29-4EF1-A0BF-6DAD8B6694B1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{5913DBAB-AB29-4EF1-A0BF-6DAD8B6694B1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BPT" sheetId="1" r:id="rId1"/>
+    <sheet name="BWR" sheetId="3" r:id="rId2"/>
+    <sheet name="CSH" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="45">
   <si>
     <t>Deployment Site</t>
   </si>
@@ -118,6 +120,54 @@
   </si>
   <si>
     <t>160526.BPT</t>
+  </si>
+  <si>
+    <t>150819.BPT</t>
+  </si>
+  <si>
+    <t>Brewer's Bay</t>
+  </si>
+  <si>
+    <t>061103.BWR</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Black Point 15 meter deployment estimate for 40-50 foot depth. New Lithium-Ion b.</t>
+  </si>
+  <si>
+    <t>Brewers Bay Deployment for Mare Nostrum EPSCoR project for receiver testing.</t>
+  </si>
+  <si>
+    <t>150615.BWR</t>
+  </si>
+  <si>
+    <t>.BRW</t>
+  </si>
+  <si>
+    <t>College Shoal</t>
+  </si>
+  <si>
+    <t>College Shoal Deployment on May 20th at 9PM GMT by Tyler Smith.</t>
+  </si>
+  <si>
+    <t>140520.CSH</t>
+  </si>
+  <si>
+    <t>.CSH</t>
+  </si>
+  <si>
+    <t>College Shoal Deployment on September 25, 2014 5PM GMT by Tyler Smith</t>
+  </si>
+  <si>
+    <t>140925.CSH</t>
+  </si>
+  <si>
+    <t>College Shoal, April 2, 2015, Start at 6pm GMT, Tyler Smith</t>
+  </si>
+  <si>
+    <t>150402.CSH</t>
   </si>
 </sst>
 </file>
@@ -125,8 +175,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="170" formatCode="m/d/yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -152,7 +202,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +218,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -220,14 +276,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,10 +601,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B247B5-0309-45E9-8ACB-46F299ED4FBA}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,13 +771,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>42383</v>
+        <v>42235</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>13</v>
@@ -729,16 +789,16 @@
         <v>13</v>
       </c>
       <c r="H5" s="10">
-        <v>42383.666666666664</v>
+        <v>42235.75</v>
       </c>
       <c r="I5" s="10">
-        <v>42516.666666666664</v>
+        <v>42383.625</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -746,13 +806,13 @@
         <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>42235</v>
+        <v>42383</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>13</v>
@@ -764,16 +824,16 @@
         <v>13</v>
       </c>
       <c r="H6" s="10">
-        <v>42235.75</v>
+        <v>42383.666666666664</v>
       </c>
       <c r="I6" s="10">
-        <v>42383.625</v>
+        <v>42516.666666666664</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1547,6 +1607,1241 @@
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J46" s="2" t="s">
         <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M46">
+    <sortCondition ref="B2:B46"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115CF8BF-85CB-4E92-8DF4-7F951D0E2E82}">
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="7" width="9.88671875" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="10" max="10" width="38.21875" customWidth="1"/>
+    <col min="11" max="11" width="24.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1">
+        <v>39024</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10">
+        <v>39024.75</v>
+      </c>
+      <c r="I2" s="10">
+        <v>39042.666666666664</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="12">
+        <v>42170</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="13">
+        <v>42170.875</v>
+      </c>
+      <c r="I3" s="13">
+        <v>42180.708333333336</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AE03C4-EA4D-4D50-9034-3F99398D975D}">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="7" width="9.88671875" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="10" max="10" width="38.21875" customWidth="1"/>
+    <col min="11" max="11" width="24.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1">
+        <v>41779</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10">
+        <v>41779.875</v>
+      </c>
+      <c r="I2" s="10">
+        <v>41907.75</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1">
+        <v>41907</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10">
+        <v>41907.791666666664</v>
+      </c>
+      <c r="I3" s="10">
+        <v>42092.208333333336</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42096</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10">
+        <v>42096.75</v>
+      </c>
+      <c r="I4" s="10">
+        <v>42222.75</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/ADCP Deployment Log.xlsx
+++ b/ADCP Deployment Log.xlsx
@@ -8,14 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nyx\Documents\GitHub\acdp-fuzzy-journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2111D14-7F37-42E2-938E-B9D5011369DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DADBCB-B836-48E1-80C4-258CFAFF57A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{5913DBAB-AB29-4EF1-A0BF-6DAD8B6694B1}"/>
+    <workbookView xWindow="9684" yWindow="0" windowWidth="13356" windowHeight="8916" firstSheet="3" activeTab="8" xr2:uid="{5913DBAB-AB29-4EF1-A0BF-6DAD8B6694B1}"/>
   </bookViews>
   <sheets>
     <sheet name="BPT" sheetId="1" r:id="rId1"/>
     <sheet name="BWR" sheetId="3" r:id="rId2"/>
     <sheet name="CSH" sheetId="4" r:id="rId3"/>
+    <sheet name="CRN" sheetId="5" r:id="rId4"/>
+    <sheet name="FC1" sheetId="10" r:id="rId5"/>
+    <sheet name="FC2" sheetId="6" r:id="rId6"/>
+    <sheet name="FC3" sheetId="11" r:id="rId7"/>
+    <sheet name="HWE" sheetId="12" r:id="rId8"/>
+    <sheet name="HWW" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="50">
   <si>
     <t>Deployment Site</t>
   </si>
@@ -83,9 +89,6 @@
     <t>….</t>
   </si>
   <si>
-    <t>BP</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -107,28 +110,7 @@
     <t>Black Point Ciguatera ADCP deployment May 26 12:00pm AST</t>
   </si>
   <si>
-    <t>061103.BPT</t>
-  </si>
-  <si>
-    <t>061129.BPT</t>
-  </si>
-  <si>
-    <t>150829.BPT</t>
-  </si>
-  <si>
-    <t>160114.BPT</t>
-  </si>
-  <si>
-    <t>160526.BPT</t>
-  </si>
-  <si>
-    <t>150819.BPT</t>
-  </si>
-  <si>
     <t>Brewer's Bay</t>
-  </si>
-  <si>
-    <t>061103.BWR</t>
   </si>
   <si>
     <t>…</t>
@@ -140,34 +122,73 @@
     <t>Brewers Bay Deployment for Mare Nostrum EPSCoR project for receiver testing.</t>
   </si>
   <si>
-    <t>150615.BWR</t>
-  </si>
-  <si>
-    <t>.BRW</t>
-  </si>
-  <si>
     <t>College Shoal</t>
   </si>
   <si>
     <t>College Shoal Deployment on May 20th at 9PM GMT by Tyler Smith.</t>
   </si>
   <si>
-    <t>140520.CSH</t>
-  </si>
-  <si>
-    <t>.CSH</t>
-  </si>
-  <si>
     <t>College Shoal Deployment on September 25, 2014 5PM GMT by Tyler Smith</t>
-  </si>
-  <si>
-    <t>140925.CSH</t>
   </si>
   <si>
     <t>College Shoal, April 2, 2015, Start at 6pm GMT, Tyler Smith</t>
   </si>
   <si>
-    <t>150402.CSH</t>
+    <t>Dep. Date</t>
+  </si>
+  <si>
+    <t>Crown Bay</t>
+  </si>
+  <si>
+    <t>Test at crown bay adcp  local time</t>
+  </si>
+  <si>
+    <t>Crown Bay Dolphin to validate horizontal ADCP, deployed by Sennai and Paul</t>
+  </si>
+  <si>
+    <t>CROWN BAY 12 3 16</t>
+  </si>
+  <si>
+    <t>First Deployment French Cap. Station FC1 Offshore Shelf Edge. Battery 0142.</t>
+  </si>
+  <si>
+    <t>French Cap Station 1</t>
+  </si>
+  <si>
+    <t>Second Deployment French Cap. Station FC1 Offshore Shelf Edge. Battery 0001.</t>
+  </si>
+  <si>
+    <t>French Cap Station 2</t>
+  </si>
+  <si>
+    <t>French Cap Station 3</t>
+  </si>
+  <si>
+    <t>First Deployment French Cap, Station FC2 Midshelf. Battery 0049.</t>
+  </si>
+  <si>
+    <t>Second Deployment French Cap. Station FC2 Midshelf. Battery 0021.</t>
+  </si>
+  <si>
+    <t>First Deployment French Cap. Station FC3 Inshore. Battery ID 0055 New 3/2010.</t>
+  </si>
+  <si>
+    <t>(No Comment Available)</t>
+  </si>
+  <si>
+    <t>new alkaline battery</t>
+  </si>
+  <si>
+    <t>#5 Hawksnest East of entrance</t>
+  </si>
+  <si>
+    <t>#5 Hawksnest West of entrance</t>
+  </si>
+  <si>
+    <t>Hawknest West</t>
+  </si>
+  <si>
+    <t>Hawknest East</t>
   </si>
 </sst>
 </file>
@@ -178,7 +199,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +218,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -605,13 +632,13 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="20.5546875" customWidth="1"/>
     <col min="5" max="7" width="9.88671875" customWidth="1"/>
     <col min="8" max="8" width="19.6640625" customWidth="1"/>
@@ -652,7 +679,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>9</v>
@@ -671,8 +698,9 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".BPT")</f>
+        <v>061103-061121.BPT</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -693,7 +721,7 @@
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -706,8 +734,9 @@
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3:D37" si="0">_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".BPT")</f>
+        <v>061129-070301.BPT</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>13</v>
@@ -728,7 +757,7 @@
         <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -741,8 +770,9 @@
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>070419-070904.BPT</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
@@ -763,7 +793,7 @@
         <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -776,8 +806,9 @@
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>150819-160114.BPT</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>13</v>
@@ -798,7 +829,7 @@
         <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -811,8 +842,9 @@
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>160114-160526.BPT</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>13</v>
@@ -833,7 +865,7 @@
         <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -846,8 +878,9 @@
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>160526-160920.BPT</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
@@ -868,7 +901,7 @@
         <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -878,8 +911,9 @@
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BPT</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>13</v>
@@ -901,8 +935,9 @@
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BPT</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>13</v>
@@ -924,8 +959,9 @@
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BPT</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
@@ -947,8 +983,9 @@
       <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>16</v>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BPT</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
@@ -970,8 +1007,9 @@
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>16</v>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BPT</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>13</v>
@@ -993,8 +1031,9 @@
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BPT</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>13</v>
@@ -1016,8 +1055,9 @@
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>16</v>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BPT</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>13</v>
@@ -1039,8 +1079,9 @@
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>16</v>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BPT</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>13</v>
@@ -1062,8 +1103,9 @@
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>16</v>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BPT</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>13</v>
@@ -1085,8 +1127,9 @@
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>16</v>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BPT</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>13</v>
@@ -1108,8 +1151,9 @@
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>16</v>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BPT</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>13</v>
@@ -1131,8 +1175,9 @@
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>16</v>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BPT</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>13</v>
@@ -1154,8 +1199,9 @@
       <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>16</v>
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BPT</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>13</v>
@@ -1177,8 +1223,9 @@
       <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>16</v>
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BPT</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>13</v>
@@ -1200,8 +1247,9 @@
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>16</v>
+      <c r="D22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BPT</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>13</v>
@@ -1223,8 +1271,9 @@
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>16</v>
+      <c r="D23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BPT</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>13</v>
@@ -1246,8 +1295,9 @@
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>16</v>
+      <c r="D24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BPT</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>13</v>
@@ -1269,8 +1319,9 @@
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>16</v>
+      <c r="D25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BPT</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>13</v>
@@ -1292,8 +1343,9 @@
       <c r="C26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>16</v>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BPT</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>13</v>
@@ -1315,8 +1367,9 @@
       <c r="C27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>16</v>
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BPT</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>13</v>
@@ -1338,8 +1391,9 @@
       <c r="C28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>16</v>
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BPT</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>13</v>
@@ -1361,8 +1415,9 @@
       <c r="C29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>16</v>
+      <c r="D29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BPT</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>13</v>
@@ -1384,8 +1439,9 @@
       <c r="C30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>16</v>
+      <c r="D30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BPT</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>13</v>
@@ -1407,8 +1463,9 @@
       <c r="C31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>16</v>
+      <c r="D31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BPT</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>13</v>
@@ -1430,8 +1487,9 @@
       <c r="C32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>16</v>
+      <c r="D32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BPT</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>13</v>
@@ -1453,8 +1511,9 @@
       <c r="C33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>16</v>
+      <c r="D33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BPT</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>13</v>
@@ -1476,8 +1535,9 @@
       <c r="C34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>16</v>
+      <c r="D34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BPT</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>13</v>
@@ -1499,8 +1559,9 @@
       <c r="C35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>16</v>
+      <c r="D35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BPT</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>13</v>
@@ -1522,8 +1583,9 @@
       <c r="C36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>16</v>
+      <c r="D36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BPT</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>13</v>
@@ -1545,8 +1607,9 @@
       <c r="C37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>16</v>
+      <c r="D37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BPT</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>13</v>
@@ -1621,14 +1684,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115CF8BF-85CB-4E92-8DF4-7F951D0E2E82}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="1" max="2" width="15.77734375" customWidth="1"/>
     <col min="4" max="4" width="20.5546875" customWidth="1"/>
     <col min="5" max="7" width="9.88671875" customWidth="1"/>
     <col min="8" max="8" width="19.6640625" customWidth="1"/>
@@ -1669,7 +1731,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>9</v>
@@ -1680,7 +1742,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>39024</v>
@@ -1688,8 +1750,9 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>31</v>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".BWR")</f>
+        <v>061103-061121.BWR</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -1707,15 +1770,15 @@
         <v>39042.666666666664</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B3" s="12">
         <v>42170</v>
@@ -1723,8 +1786,9 @@
       <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>35</v>
+      <c r="D3" s="11" t="str">
+        <f t="shared" ref="D3:D26" si="0">_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".BWR")</f>
+        <v>150615-150625.BWR</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>13</v>
@@ -1742,21 +1806,22 @@
         <v>42180.708333333336</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>36</v>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
@@ -1768,18 +1833,19 @@
         <v>13</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>36</v>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>13</v>
@@ -1791,18 +1857,19 @@
         <v>13</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>36</v>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>13</v>
@@ -1814,18 +1881,19 @@
         <v>13</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>36</v>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
@@ -1837,18 +1905,19 @@
         <v>13</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>13</v>
@@ -1860,18 +1929,19 @@
         <v>13</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>36</v>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>13</v>
@@ -1883,18 +1953,19 @@
         <v>13</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>36</v>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
@@ -1906,18 +1977,19 @@
         <v>13</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>36</v>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
@@ -1929,18 +2001,19 @@
         <v>13</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>36</v>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>13</v>
@@ -1952,18 +2025,19 @@
         <v>13</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>36</v>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>13</v>
@@ -1975,18 +2049,19 @@
         <v>13</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>36</v>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>13</v>
@@ -1998,18 +2073,19 @@
         <v>13</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>36</v>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>13</v>
@@ -2021,18 +2097,19 @@
         <v>13</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>36</v>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>13</v>
@@ -2044,18 +2121,19 @@
         <v>13</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>36</v>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>13</v>
@@ -2067,18 +2145,19 @@
         <v>13</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>36</v>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>13</v>
@@ -2090,18 +2169,19 @@
         <v>13</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>36</v>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>13</v>
@@ -2113,18 +2193,19 @@
         <v>13</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>36</v>
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>13</v>
@@ -2136,18 +2217,19 @@
         <v>13</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>36</v>
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>13</v>
@@ -2159,18 +2241,19 @@
         <v>13</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>36</v>
+      <c r="D22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>13</v>
@@ -2182,18 +2265,19 @@
         <v>13</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>36</v>
+      <c r="D23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>13</v>
@@ -2205,18 +2289,19 @@
         <v>13</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>36</v>
+      <c r="D24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>13</v>
@@ -2228,18 +2313,19 @@
         <v>13</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>36</v>
+      <c r="D25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>13</v>
@@ -2251,18 +2337,19 @@
         <v>13</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>36</v>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>13</v>
@@ -2274,7 +2361,7 @@
         <v>13</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2286,19 +2373,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AE03C4-EA4D-4D50-9034-3F99398D975D}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
     <col min="5" max="7" width="9.88671875" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="38.21875" customWidth="1"/>
+    <col min="8" max="9" width="15.77734375" customWidth="1"/>
+    <col min="10" max="10" width="27.77734375" customWidth="1"/>
     <col min="11" max="11" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2307,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -2334,7 +2421,1195 @@
         <v>8</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1">
+        <v>41779</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".CSH")</f>
+        <v>140520-140925.CSH</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10">
+        <v>41779.875</v>
+      </c>
+      <c r="I2" s="10">
+        <v>41907.75</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1">
+        <v>41907</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3:D21" si="0">_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".CSH")</f>
+        <v>140925-150329.CSH</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10">
+        <v>41907.791666666664</v>
+      </c>
+      <c r="I3" s="10">
+        <v>42092.208333333336</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42096</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>150402-150806.CSH</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10">
+        <v>42096.75</v>
+      </c>
+      <c r="I4" s="10">
+        <v>42222.75</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CSH</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CSH</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CSH</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CSH</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CSH</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CSH</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CSH</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CSH</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CSH</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CSH</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CSH</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CSH</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CSH</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CSH</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CSH</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CSH</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CSH</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9741E545-5A33-4298-BFB7-A5436CDC8B7E}">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="7" width="9.88671875" customWidth="1"/>
+    <col min="8" max="9" width="15.77734375" customWidth="1"/>
+    <col min="10" max="10" width="27.77734375" customWidth="1"/>
+    <col min="11" max="11" width="24.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1">
+        <v>42591</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".CRN")</f>
+        <v>160809-160809.CRN</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10">
+        <v>42591.667361111111</v>
+      </c>
+      <c r="I2" s="10">
+        <v>42591.747916666667</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42582</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3:D22" si="0">_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".CRN")</f>
+        <v>160731-160731.CRN</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10">
+        <v>42582.858842592592</v>
+      </c>
+      <c r="I3" s="10">
+        <v>42582.861898148149</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42707</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>161203-161203.CRN</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10">
+        <v>42707.511863425927</v>
+      </c>
+      <c r="I4" s="10">
+        <v>42707.648854166669</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CRN</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CRN</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CRN</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CRN</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CRN</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CRN</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CRN</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CRN</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CRN</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CRN</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CRN</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CRN</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CRN</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CRN</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CRN</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CRN</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CRN</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.CRN</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6ED523-8A2C-4A5E-B64F-5359AAD7F448}">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="7" width="9.88671875" customWidth="1"/>
+    <col min="8" max="9" width="15.77734375" customWidth="1"/>
+    <col min="10" max="10" width="27.77734375" customWidth="1"/>
+    <col min="11" max="11" width="24.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>9</v>
@@ -2348,15 +3623,16 @@
         <v>37</v>
       </c>
       <c r="B2" s="1">
-        <v>41779</v>
+        <v>40657</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".FC1")</f>
+        <v>110424-110920.FC1</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -2366,16 +3642,16 @@
         <v>13</v>
       </c>
       <c r="H2" s="10">
-        <v>41779.875</v>
+        <v>40657.541666666664</v>
       </c>
       <c r="I2" s="10">
-        <v>41907.75</v>
+        <v>40806.833333333336</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2383,13 +3659,14 @@
         <v>37</v>
       </c>
       <c r="B3" s="1">
-        <v>41907</v>
+        <v>40807</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>42</v>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3:D17" si="0">_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".FC1")</f>
+        <v>110921-120316.FC1</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>13</v>
@@ -2401,30 +3678,28 @@
         <v>13</v>
       </c>
       <c r="H3" s="10">
-        <v>41907.791666666664</v>
+        <v>40807.791666666664</v>
       </c>
       <c r="I3" s="10">
-        <v>42092.208333333336</v>
+        <v>40984.625</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="1">
-        <v>42096</v>
-      </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>44</v>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.FC1</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
@@ -2435,17 +3710,8 @@
       <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="10">
-        <v>42096.75</v>
-      </c>
-      <c r="I4" s="10">
-        <v>42222.75</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -2455,8 +3721,9 @@
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>40</v>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.FC1</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>13</v>
@@ -2468,7 +3735,7 @@
         <v>13</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -2478,8 +3745,9 @@
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>40</v>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.FC1</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>13</v>
@@ -2491,7 +3759,7 @@
         <v>13</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -2501,8 +3769,9 @@
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>40</v>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.FC1</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
@@ -2514,7 +3783,7 @@
         <v>13</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -2524,8 +3793,9 @@
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>40</v>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.FC1</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>13</v>
@@ -2537,7 +3807,7 @@
         <v>13</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -2547,8 +3817,9 @@
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>40</v>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.FC1</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>13</v>
@@ -2560,7 +3831,7 @@
         <v>13</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -2570,8 +3841,9 @@
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>40</v>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.FC1</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
@@ -2583,7 +3855,7 @@
         <v>13</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -2593,8 +3865,9 @@
       <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>40</v>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.FC1</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
@@ -2606,7 +3879,7 @@
         <v>13</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -2616,8 +3889,9 @@
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>40</v>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.FC1</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>13</v>
@@ -2629,7 +3903,7 @@
         <v>13</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -2639,8 +3913,9 @@
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>40</v>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.FC1</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>13</v>
@@ -2652,7 +3927,7 @@
         <v>13</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -2662,8 +3937,9 @@
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>40</v>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.FC1</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>13</v>
@@ -2675,7 +3951,7 @@
         <v>13</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -2685,8 +3961,9 @@
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>40</v>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.FC1</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>13</v>
@@ -2698,7 +3975,7 @@
         <v>13</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -2708,8 +3985,9 @@
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>40</v>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.FC1</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>13</v>
@@ -2721,7 +3999,7 @@
         <v>13</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -2731,117 +4009,1093 @@
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.FC1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE91813E-4418-4BB9-918D-F3F822F9944B}">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="7" width="9.88671875" customWidth="1"/>
+    <col min="8" max="9" width="15.77734375" customWidth="1"/>
+    <col min="10" max="10" width="27.77734375" customWidth="1"/>
+    <col min="11" max="11" width="24.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1">
+        <v>40657</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".FC2")</f>
+        <v>110424-110806.FC2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10">
+        <v>40657.625</v>
+      </c>
+      <c r="I2" s="10">
+        <v>40761.375</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1">
+        <v>40807</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3:D5" si="0">_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".FC2")</f>
+        <v>110921-111030.FC2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10">
+        <v>40807.833333333336</v>
+      </c>
+      <c r="I3" s="10">
+        <v>40846.583333333336</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.FC2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.FC2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B325909-2976-43DB-9407-8C8F67672D5F}">
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="7" width="9.88671875" customWidth="1"/>
+    <col min="8" max="9" width="15.77734375" customWidth="1"/>
+    <col min="10" max="10" width="27.77734375" customWidth="1"/>
+    <col min="11" max="11" width="24.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="B2" s="1">
+        <v>40657</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".FC3")</f>
+        <v>110424-110920.FC3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10">
+        <v>40657.708333333336</v>
+      </c>
+      <c r="I2" s="10">
+        <v>40806.75</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="B3" s="12">
+        <v>40995</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="11" t="str">
+        <f t="shared" ref="D3:D15" si="0">_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".FC3")</f>
+        <v>120327-120330.FC3</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="13">
+        <v>40995.916666666664</v>
+      </c>
+      <c r="I3" s="13">
+        <v>40998.916666666664</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.FC3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.FC3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C22" s="2" t="s">
-        <v>13</v>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.FC3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.FC3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.FC3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.FC3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.FC3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.FC3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.FC3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.FC3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.FC3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.FC3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273AEF76-A443-4C8C-8D53-05B44040AFD9}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="7" width="9.88671875" customWidth="1"/>
+    <col min="8" max="9" width="15.77734375" customWidth="1"/>
+    <col min="10" max="10" width="27.77734375" customWidth="1"/>
+    <col min="11" max="11" width="24.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="1">
+        <v>38953</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".HWE")</f>
+        <v>060824-060919.HWE</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10">
+        <v>38953.541666666664</v>
+      </c>
+      <c r="I2" s="10">
+        <v>38979.53125</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1">
+        <v>38933</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".HWE")</f>
+        <v>060804-060824.HWE</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10">
+        <v>38933.75</v>
+      </c>
+      <c r="I3" s="10">
+        <v>38953.440972222219</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07B88AD-D12F-4431-916B-49FF32B02804}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="7" width="9.88671875" customWidth="1"/>
+    <col min="8" max="9" width="15.77734375" customWidth="1"/>
+    <col min="10" max="10" width="27.77734375" customWidth="1"/>
+    <col min="11" max="11" width="24.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1">
+        <v>38933</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".HWW")</f>
+        <v>060804-060824.HWW</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10">
+        <v>38933.75</v>
+      </c>
+      <c r="I2" s="10">
+        <v>38953.458333333336</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1">
+        <v>38953</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".HWW")</f>
+        <v>060824-060919.HWW</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10">
+        <v>38953.541666666664</v>
+      </c>
+      <c r="I3" s="10">
+        <v>38979.541666666664</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/ADCP Deployment Log.xlsx
+++ b/ADCP Deployment Log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nyx\Documents\GitHub\acdp-fuzzy-journey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\acdp-fuzzy-journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DADBCB-B836-48E1-80C4-258CFAFF57A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B697BA-3492-459F-9EF5-392466340746}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9684" yWindow="0" windowWidth="13356" windowHeight="8916" firstSheet="3" activeTab="8" xr2:uid="{5913DBAB-AB29-4EF1-A0BF-6DAD8B6694B1}"/>
+    <workbookView xWindow="7530" yWindow="1305" windowWidth="19170" windowHeight="8820" firstSheet="5" activeTab="15" xr2:uid="{5913DBAB-AB29-4EF1-A0BF-6DAD8B6694B1}"/>
   </bookViews>
   <sheets>
     <sheet name="BPT" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,16 @@
     <sheet name="FC3" sheetId="11" r:id="rId7"/>
     <sheet name="HWE" sheetId="12" r:id="rId8"/>
     <sheet name="HWW" sheetId="13" r:id="rId9"/>
+    <sheet name="LBH" sheetId="15" r:id="rId10"/>
+    <sheet name="MGN" sheetId="16" r:id="rId11"/>
+    <sheet name="HKA" sheetId="17" r:id="rId12"/>
+    <sheet name="Saba" sheetId="18" r:id="rId13"/>
+    <sheet name="SAR" sheetId="19" r:id="rId14"/>
+    <sheet name="SHR" sheetId="20" r:id="rId15"/>
+    <sheet name="SCP" sheetId="21" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="77">
   <si>
     <t>Deployment Site</t>
   </si>
@@ -189,6 +197,87 @@
   </si>
   <si>
     <t>Hawknest East</t>
+  </si>
+  <si>
+    <t>Lang Bank Red Hind FSA</t>
+  </si>
+  <si>
+    <t>New lithium battery install Nov 8, 2005</t>
+  </si>
+  <si>
+    <t>Rechargeable Lithium Ion 0049</t>
+  </si>
+  <si>
+    <t>Lang Bank Deployment on January 14th by Richard Nemeth</t>
+  </si>
+  <si>
+    <t>Lang Bank deployment by R.Nemeth on Jan 29th, 2015</t>
+  </si>
+  <si>
+    <t>Lang Bank STX deployment for Sennai located at same location as previous LB site</t>
+  </si>
+  <si>
+    <t>Magens Bay</t>
+  </si>
+  <si>
+    <t>#5 deployed 11/29/06 in Megan's Bay. FLNTUSB-542 deployed with ADCP.</t>
+  </si>
+  <si>
+    <t>Magens Bay 18 meter deployment estimate for 50 -58 foot depth. Fresh Charged Lit.</t>
+  </si>
+  <si>
+    <t>HKA</t>
+  </si>
+  <si>
+    <t>"N/A"</t>
+  </si>
+  <si>
+    <t>Deployed 2/4/2009. 40- 1 meter cells</t>
+  </si>
+  <si>
+    <t>MCD 166 Deployment. Sept 23,2008. 140 days = Feb 10 retrieval @ 80% battery.</t>
+  </si>
+  <si>
+    <t>Deployment for MCD target depth 139 ft with Eco-Lab attached</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New aquadopp version 1.20.0.0 </t>
+  </si>
+  <si>
+    <t>Deployed 2/4/2009. 40- 1 meter cells.</t>
+  </si>
+  <si>
+    <t>New lithium battery install 11/21/2005.  v=11.4.</t>
+  </si>
+  <si>
+    <t>Saba</t>
+  </si>
+  <si>
+    <t>Sail Rock</t>
+  </si>
+  <si>
+    <t>Dr. Brandy, WP Grid Num 73, South of Sail Rock, deployed 9/13/2016</t>
+  </si>
+  <si>
+    <t>Seahorse ADCP deployment May 31, 2016</t>
+  </si>
+  <si>
+    <t>ADCP Ciguatera Seahorse August 19 2015</t>
+  </si>
+  <si>
+    <t>ADCP Ciguatera Seahorse Jan.19, 2016</t>
+  </si>
+  <si>
+    <t>Seahorse station for Ciguatera research project deployed by Tyler and Rossie</t>
+  </si>
+  <si>
+    <t>Seahorse Cottage Shoal Cig</t>
+  </si>
+  <si>
+    <t>South Capella</t>
+  </si>
+  <si>
+    <t>Second Spawning Deployment S Capela</t>
   </si>
 </sst>
 </file>
@@ -632,22 +721,22 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
-    <col min="5" max="7" width="9.88671875" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="38.21875" customWidth="1"/>
-    <col min="11" max="11" width="24.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="38.28515625" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -688,7 +777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -724,7 +813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -735,7 +824,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3:D37" si="0">_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".BPT")</f>
+        <f>_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".BPT")</f>
         <v>061129-070301.BPT</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -760,7 +849,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -771,7 +860,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT((TEXT(H4,"yymmdd")),"-",TEXT(I4,"yymmdd"),".BPT")</f>
         <v>070419-070904.BPT</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -796,7 +885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -807,7 +896,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT((TEXT(H5,"yymmdd")),"-",TEXT(I5,"yymmdd"),".BPT")</f>
         <v>150819-160114.BPT</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -832,7 +921,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -843,7 +932,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT((TEXT(H6,"yymmdd")),"-",TEXT(I6,"yymmdd"),".BPT")</f>
         <v>160114-160526.BPT</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -868,7 +957,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -879,7 +968,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT((TEXT(H7,"yymmdd")),"-",TEXT(I7,"yymmdd"),".BPT")</f>
         <v>160526-160920.BPT</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -904,7 +993,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -912,7 +1001,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D3:D37" si="0">_xlfn.CONCAT((TEXT(H8,"yymmdd")),"-",TEXT(I8,"yymmdd"),".BPT")</f>
         <v>000100-000100.BPT</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -928,7 +1017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -952,7 +1041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -976,7 +1065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1000,7 +1089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1024,7 +1113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1048,7 +1137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1072,7 +1161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1096,7 +1185,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -1120,7 +1209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -1144,7 +1233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1168,7 +1257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -1192,7 +1281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1216,7 +1305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1240,7 +1329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
@@ -1264,7 +1353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
@@ -1288,7 +1377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
@@ -1312,7 +1401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
@@ -1336,7 +1425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
@@ -1360,7 +1449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
@@ -1384,7 +1473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
@@ -1408,7 +1497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
@@ -1432,7 +1521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
@@ -1456,7 +1545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
@@ -1480,7 +1569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
@@ -1504,7 +1593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>11</v>
       </c>
@@ -1528,7 +1617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>11</v>
       </c>
@@ -1552,7 +1641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>11</v>
       </c>
@@ -1576,7 +1665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>11</v>
       </c>
@@ -1600,7 +1689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>11</v>
       </c>
@@ -1624,7 +1713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G38" s="2" t="s">
         <v>12</v>
       </c>
@@ -1632,50 +1721,1352 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J39" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J40" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J41" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J42" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J43" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J44" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J45" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J46" s="2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M46">
-    <sortCondition ref="B2:B46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M7">
+    <sortCondition ref="D2:D7"/>
   </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B394E8E1-6745-4ABB-A8E0-7AB0C4989218}">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1">
+        <v>38676</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".LBH")</f>
+        <v>051121-060820.LBH</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10">
+        <v>38677.625</v>
+      </c>
+      <c r="I2" s="10">
+        <v>38949.791666666664</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1">
+        <v>39062</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".LBH")</f>
+        <v>061211-070310.LBH</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10">
+        <v>39062.75</v>
+      </c>
+      <c r="I3" s="10">
+        <v>39151.583333333336</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1">
+        <v>41653</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H4,"yymmdd")),"-",TEXT(I4,"yymmdd"),".LBH")</f>
+        <v>140115-140520.LBH</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10">
+        <v>41654.625</v>
+      </c>
+      <c r="I4" s="10">
+        <v>41779.625</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1">
+        <v>42033</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H5,"yymmdd")),"-",TEXT(I5,"yymmdd"),".LBH")</f>
+        <v>150129-150424.LBH</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10">
+        <v>42033.791666666664</v>
+      </c>
+      <c r="I5" s="10">
+        <v>42118.75</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1">
+        <v>42831</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H6,"yymmdd")),"-",TEXT(I6,"yymmdd"),".LBH")</f>
+        <v>170406-170512.LBH</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10">
+        <v>42831.708333333336</v>
+      </c>
+      <c r="I6" s="10">
+        <v>42867.583333333336</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M6">
+    <sortCondition ref="D2:D6"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA06B430-2A37-4338-9C20-9B8503287F26}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1">
+        <v>39054</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".MGN")</f>
+        <v>061204-070412.MGN</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10">
+        <v>39055.645833333336</v>
+      </c>
+      <c r="I2" s="10">
+        <v>39184.3125</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1">
+        <v>39224</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".MGN")</f>
+        <v>070522-071003.MGN</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10">
+        <v>39224.75</v>
+      </c>
+      <c r="I3" s="10">
+        <v>39358.625</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M3">
+    <sortCondition ref="D2:D3"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FD95CE-17AC-4249-9785-DDBE81B6A21B}">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1">
+        <v>39374</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".HKA")</f>
+        <v>071019-080216.HKA</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10">
+        <v>39374.75</v>
+      </c>
+      <c r="I2" s="10">
+        <v>39494.916666666664</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1">
+        <v>39502</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".HKA")</f>
+        <v>080224-080331.HKA</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10">
+        <v>39502.541666666664</v>
+      </c>
+      <c r="I3" s="10">
+        <v>39538.076388888891</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1">
+        <v>39548</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H4,"yymmdd")),"-",TEXT(I4,"yymmdd"),".HKA")</f>
+        <v>080410-080911.HKA</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10">
+        <v>39548.75</v>
+      </c>
+      <c r="I4" s="10">
+        <v>39702.479166666664</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1">
+        <v>39714</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H5,"yymmdd")),"-",TEXT(I5,"yymmdd"),".HKA")</f>
+        <v>080923-090131.HKA</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10">
+        <v>39714.5625</v>
+      </c>
+      <c r="I5" s="10">
+        <v>39844.458333333336</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="1">
+        <v>39848</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H6,"yymmdd")),"-",TEXT(I6,"yymmdd"),".HKA")</f>
+        <v>090204-090210.HKA</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10">
+        <v>39848.75</v>
+      </c>
+      <c r="I6" s="10">
+        <v>39854.375</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1">
+        <v>39848</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H7,"yymmdd")),"-",TEXT(I7,"yymmdd"),".HKA")</f>
+        <v>090204-090710.HKA</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10">
+        <v>39848.75</v>
+      </c>
+      <c r="I7" s="10">
+        <v>40004.958333333336</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1">
+        <v>40034</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H8,"yymmdd")),"-",TEXT(I8,"yymmdd"),".HKA")</f>
+        <v>090809-100127.HKA</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="10">
+        <v>40034.75</v>
+      </c>
+      <c r="I8" s="10">
+        <v>40205.333333333336</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M8">
+    <sortCondition ref="D2:D8"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF9CC53-E005-4B84-8D91-A9D4169E996E}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C7:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1">
+        <v>38698</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".SABA")</f>
+        <v>051213-060212.SABA</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10">
+        <v>38699.6875</v>
+      </c>
+      <c r="I2" s="10">
+        <v>38760.458333333336</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B764E31D-F603-4D0E-A044-F9A472E7B50F}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="1">
+        <v>42626</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".SAR")</f>
+        <v>160913-170212.SAR</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10">
+        <v>42626.708333333336</v>
+      </c>
+      <c r="I2" s="10">
+        <v>42778.875</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAE4255-4B76-42E8-A3B7-F414E583D5BE}">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1">
+        <v>42235</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".SHR")</f>
+        <v>150819-160119.SHR</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10">
+        <v>42235.666666666664</v>
+      </c>
+      <c r="I2" s="10">
+        <v>42388.583333333336</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42388</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".SHR")</f>
+        <v>160119-160531.SHR</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10">
+        <v>42388.625</v>
+      </c>
+      <c r="I3" s="10">
+        <v>42521.541666666664</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42521</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H4,"yymmdd")),"-",TEXT(I4,"yymmdd"),".SHR")</f>
+        <v>160531-161127.SHR</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10">
+        <v>42521.625</v>
+      </c>
+      <c r="I4" s="10">
+        <v>42701.25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="1">
+        <v>42713</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H5,"yymmdd")),"-",TEXT(I5,"yymmdd"),".SHR")</f>
+        <v>161209-170119.SHR</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10">
+        <v>42713.75</v>
+      </c>
+      <c r="I5" s="10">
+        <v>42754.708333333336</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M5">
+    <sortCondition ref="B2:B5"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D198F608-27DA-41E8-B2C7-65E0BA0F1237}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="12">
+        <v>41125</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="11" t="str">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".SCP")</f>
+        <v>120804-120819.SCP</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="13">
+        <v>41125</v>
+      </c>
+      <c r="I2" s="13">
+        <v>41140.663854166669</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="1">
+        <v>41153</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".SCP")</f>
+        <v>120901-120915.SCP</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10">
+        <v>41153.75</v>
+      </c>
+      <c r="I3" s="10">
+        <v>41167.288807870369</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1688,18 +3079,18 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
-    <col min="5" max="7" width="9.88671875" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="38.21875" customWidth="1"/>
-    <col min="11" max="11" width="24.21875" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="38.28515625" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1740,7 +3131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1776,7 +3167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>23</v>
       </c>
@@ -1812,7 +3203,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -1836,7 +3227,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -1860,7 +3251,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -1884,7 +3275,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -1908,7 +3299,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -1932,7 +3323,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1956,7 +3347,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1980,7 +3371,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -2004,7 +3395,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -2028,7 +3419,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -2052,7 +3443,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -2076,7 +3467,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -2100,7 +3491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -2124,7 +3515,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -2148,7 +3539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -2172,7 +3563,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -2196,7 +3587,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -2220,7 +3611,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -2244,7 +3635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -2268,7 +3659,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -2292,7 +3683,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -2316,7 +3707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -2340,7 +3731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
@@ -2377,19 +3768,19 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="7" width="9.88671875" customWidth="1"/>
-    <col min="8" max="9" width="15.77734375" customWidth="1"/>
-    <col min="10" max="10" width="27.77734375" customWidth="1"/>
-    <col min="11" max="11" width="24.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2430,7 +3821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2466,7 +3857,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -2502,7 +3893,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -2538,7 +3929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -2562,7 +3953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -2586,7 +3977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -2610,7 +4001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -2634,7 +4025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -2658,7 +4049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -2682,7 +4073,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -2706,7 +4097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -2730,7 +4121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -2754,7 +4145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -2778,7 +4169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -2802,7 +4193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -2826,7 +4217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
@@ -2850,7 +4241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -2874,7 +4265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
@@ -2898,7 +4289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
@@ -2922,7 +4313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
@@ -2946,7 +4337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
     </row>
   </sheetData>
@@ -2959,22 +4350,22 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="7" width="9.88671875" customWidth="1"/>
-    <col min="8" max="9" width="15.77734375" customWidth="1"/>
-    <col min="10" max="10" width="27.77734375" customWidth="1"/>
-    <col min="11" max="11" width="24.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3015,19 +4406,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="1">
-        <v>42591</v>
+        <v>42582</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="str">
         <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".CRN")</f>
-        <v>160809-160809.CRN</v>
+        <v>160731-160731.CRN</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>13</v>
@@ -3039,31 +4430,31 @@
         <v>13</v>
       </c>
       <c r="H2" s="10">
-        <v>42591.667361111111</v>
+        <v>42582.858842592592</v>
       </c>
       <c r="I2" s="10">
-        <v>42591.747916666667</v>
+        <v>42582.861898148149</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="1">
-        <v>42582</v>
+        <v>42591</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3:D22" si="0">_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".CRN")</f>
-        <v>160731-160731.CRN</v>
+        <f>_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".CRN")</f>
+        <v>160809-160809.CRN</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>13</v>
@@ -3075,19 +4466,19 @@
         <v>13</v>
       </c>
       <c r="H3" s="10">
-        <v>42582.858842592592</v>
+        <v>42591.667361111111</v>
       </c>
       <c r="I3" s="10">
-        <v>42582.861898148149</v>
+        <v>42591.747916666667</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -3098,7 +4489,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT((TEXT(H4,"yymmdd")),"-",TEXT(I4,"yymmdd"),".CRN")</f>
         <v>161203-161203.CRN</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -3123,7 +4514,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -3131,7 +4522,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D3:D22" si="0">_xlfn.CONCAT((TEXT(H5,"yymmdd")),"-",TEXT(I5,"yymmdd"),".CRN")</f>
         <v>000100-000100.CRN</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -3147,7 +4538,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -3171,7 +4562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -3195,7 +4586,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -3219,7 +4610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -3243,7 +4634,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -3267,7 +4658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -3291,7 +4682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -3315,7 +4706,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -3339,7 +4730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -3363,7 +4754,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -3387,7 +4778,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -3411,7 +4802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -3435,7 +4826,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
@@ -3459,7 +4850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
@@ -3483,7 +4874,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -3507,7 +4898,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
@@ -3531,7 +4922,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
@@ -3553,6 +4944,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M4">
+    <sortCondition ref="D2:D4"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3561,23 +4955,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6ED523-8A2C-4A5E-B64F-5359AAD7F448}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="7" width="9.88671875" customWidth="1"/>
-    <col min="8" max="9" width="15.77734375" customWidth="1"/>
-    <col min="10" max="10" width="27.77734375" customWidth="1"/>
-    <col min="11" max="11" width="24.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3618,7 +5012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -3654,7 +5048,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -3665,7 +5059,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3:D17" si="0">_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".FC1")</f>
+        <f>_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".FC1")</f>
         <v>110921-120316.FC1</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -3690,7 +5084,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
@@ -3698,7 +5092,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D3:D17" si="0">_xlfn.CONCAT((TEXT(H4,"yymmdd")),"-",TEXT(I4,"yymmdd"),".FC1")</f>
         <v>000100-000100.FC1</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -3714,7 +5108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
@@ -3738,7 +5132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
@@ -3762,7 +5156,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -3786,7 +5180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
@@ -3810,7 +5204,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -3834,7 +5228,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -3858,7 +5252,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
@@ -3882,7 +5276,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -3906,7 +5300,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
@@ -3930,7 +5324,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -3954,7 +5348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -3978,7 +5372,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -4002,7 +5396,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
@@ -4027,6 +5421,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M3">
+    <sortCondition ref="D2:D3"/>
+  </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4037,22 +5434,22 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="7" width="9.88671875" customWidth="1"/>
-    <col min="8" max="9" width="15.77734375" customWidth="1"/>
-    <col min="10" max="10" width="27.77734375" customWidth="1"/>
-    <col min="11" max="11" width="24.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4093,7 +5490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -4129,7 +5526,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -4140,7 +5537,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3:D5" si="0">_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".FC2")</f>
+        <f>_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".FC2")</f>
         <v>110921-111030.FC2</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -4165,7 +5562,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -4173,7 +5570,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT((TEXT(H4,"yymmdd")),"-",TEXT(I4,"yymmdd"),".FC2")</f>
         <v>000100-000100.FC2</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -4189,7 +5586,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
@@ -4197,7 +5594,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT((TEXT(H5,"yymmdd")),"-",TEXT(I5,"yymmdd"),".FC2")</f>
         <v>000100-000100.FC2</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -4213,7 +5610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
@@ -4233,7 +5630,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -4253,7 +5650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -4273,7 +5670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -4293,7 +5690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -4313,7 +5710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -4333,7 +5730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -4353,7 +5750,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -4373,7 +5770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -4394,6 +5791,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M3">
+    <sortCondition ref="D2:D3"/>
+  </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4404,22 +5804,22 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="7" width="9.88671875" customWidth="1"/>
-    <col min="8" max="9" width="15.77734375" customWidth="1"/>
-    <col min="10" max="10" width="27.77734375" customWidth="1"/>
-    <col min="11" max="11" width="24.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4460,7 +5860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -4496,7 +5896,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>40</v>
       </c>
@@ -4507,7 +5907,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="11" t="str">
-        <f t="shared" ref="D3:D15" si="0">_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".FC3")</f>
+        <f>_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".FC3")</f>
         <v>120327-120330.FC3</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -4532,7 +5932,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -4540,7 +5940,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D3:D15" si="0">_xlfn.CONCAT((TEXT(H4,"yymmdd")),"-",TEXT(I4,"yymmdd"),".FC3")</f>
         <v>000100-000100.FC3</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -4557,7 +5957,7 @@
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -4581,7 +5981,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -4605,7 +6005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
@@ -4629,7 +6029,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
@@ -4653,7 +6053,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -4677,7 +6077,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -4701,7 +6101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
@@ -4725,7 +6125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -4749,7 +6149,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -4773,7 +6173,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -4797,7 +6197,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -4822,6 +6222,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M3">
+    <sortCondition ref="D2:D3"/>
+  </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4832,22 +6235,22 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="7" width="9.88671875" customWidth="1"/>
-    <col min="8" max="9" width="15.77734375" customWidth="1"/>
-    <col min="10" max="10" width="27.77734375" customWidth="1"/>
-    <col min="11" max="11" width="24.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4888,19 +6291,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="1">
-        <v>38953</v>
+        <v>38933</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="str">
         <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".HWE")</f>
-        <v>060824-060919.HWE</v>
+        <v>060804-060824.HWE</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>13</v>
@@ -4912,31 +6315,31 @@
         <v>13</v>
       </c>
       <c r="H2" s="10">
-        <v>38953.541666666664</v>
+        <v>38933.75</v>
       </c>
       <c r="I2" s="10">
-        <v>38979.53125</v>
+        <v>38953.440972222219</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B3" s="1">
-        <v>38933</v>
+        <v>38953</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".HWE")</f>
-        <v>060804-060824.HWE</v>
+        <v>060824-060919.HWE</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>13</v>
@@ -4948,19 +6351,22 @@
         <v>13</v>
       </c>
       <c r="H3" s="10">
-        <v>38933.75</v>
+        <v>38953.541666666664</v>
       </c>
       <c r="I3" s="10">
-        <v>38953.440972222219</v>
+        <v>38979.53125</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M3">
+    <sortCondition ref="D2:D3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4969,23 +6375,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07B88AD-D12F-4431-916B-49FF32B02804}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="7" width="9.88671875" customWidth="1"/>
-    <col min="8" max="9" width="15.77734375" customWidth="1"/>
-    <col min="10" max="10" width="27.77734375" customWidth="1"/>
-    <col min="11" max="11" width="24.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5026,7 +6432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -5062,7 +6468,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
@@ -5099,6 +6505,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M3">
+    <sortCondition ref="D2:D3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ADCP Deployment Log.xlsx
+++ b/ADCP Deployment Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\acdp-fuzzy-journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B697BA-3492-459F-9EF5-392466340746}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9630C5-9BE8-424F-8A2B-882CECED8990}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7530" yWindow="1305" windowWidth="19170" windowHeight="8820" firstSheet="5" activeTab="15" xr2:uid="{5913DBAB-AB29-4EF1-A0BF-6DAD8B6694B1}"/>
+    <workbookView xWindow="14280" yWindow="1140" windowWidth="19875" windowHeight="8820" firstSheet="9" activeTab="20" xr2:uid="{5913DBAB-AB29-4EF1-A0BF-6DAD8B6694B1}"/>
   </bookViews>
   <sheets>
     <sheet name="BPT" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,13 @@
     <sheet name="SAR" sheetId="19" r:id="rId14"/>
     <sheet name="SHR" sheetId="20" r:id="rId15"/>
     <sheet name="SCP" sheetId="21" r:id="rId16"/>
+    <sheet name="TKT" sheetId="22" r:id="rId17"/>
+    <sheet name="TUR" sheetId="26" r:id="rId18"/>
+    <sheet name="VP#" sheetId="27" r:id="rId19"/>
+    <sheet name="NHS" sheetId="30" r:id="rId20"/>
+    <sheet name="SHS" sheetId="32" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="96">
   <si>
     <t>Deployment Site</t>
   </si>
@@ -278,6 +282,63 @@
   </si>
   <si>
     <t>Second Spawning Deployment S Capela</t>
+  </si>
+  <si>
+    <t>Tektite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viers Tektite site </t>
+  </si>
+  <si>
+    <t>Viers Tektite site</t>
+  </si>
+  <si>
+    <t>new battery volts = 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      </t>
+  </si>
+  <si>
+    <t>Turtle Point</t>
+  </si>
+  <si>
+    <t>deployment 2 Turtle Point</t>
+  </si>
+  <si>
+    <t>Viequez PR</t>
+  </si>
+  <si>
+    <t>Second deployment of Vieques Sound / Virgin Passage Transport Study. ADCP Moorin.</t>
+  </si>
+  <si>
+    <t>Second deployment of Vieques Sound / Virgin Passage Transport Study. ADCP Moorin</t>
+  </si>
+  <si>
+    <t>First deployment of Vieques Sound / Virgin Passage Transport Study. ADCP Mooring</t>
+  </si>
+  <si>
+    <t>3 deployment of Vieques Sound / Virgin Passage Transport Study. ADCP Mooring</t>
+  </si>
+  <si>
+    <t>North Side AWAC deploymnet. Double Battery Pack.</t>
+  </si>
+  <si>
+    <t>North Side AWAC</t>
+  </si>
+  <si>
+    <t>(Blank)</t>
+  </si>
+  <si>
+    <t>South Side AWAC</t>
+  </si>
+  <si>
+    <t>First deployment of 1MHz AWAC Southside 25 meters target depth 84 feet</t>
+  </si>
+  <si>
+    <t>South Side AWAc 1 MHz. Deployed Sept 29, 2008. Target Retrieval 105 days = Jan.</t>
+  </si>
+  <si>
+    <t>Second deployment of 1MHz AWAC Southside 25 meters target depth. 84 feet. $ hou</t>
   </si>
 </sst>
 </file>
@@ -384,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -403,6 +464,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -788,7 +853,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="str">
-        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".BPT")</f>
+        <f t="shared" ref="D2:D7" si="0">_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".BPT")</f>
         <v>061103-061121.BPT</v>
       </c>
       <c r="E2" t="s">
@@ -824,7 +889,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f>_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".BPT")</f>
+        <f t="shared" si="0"/>
         <v>061129-070301.BPT</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -860,7 +925,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f>_xlfn.CONCAT((TEXT(H4,"yymmdd")),"-",TEXT(I4,"yymmdd"),".BPT")</f>
+        <f t="shared" si="0"/>
         <v>070419-070904.BPT</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -896,7 +961,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f>_xlfn.CONCAT((TEXT(H5,"yymmdd")),"-",TEXT(I5,"yymmdd"),".BPT")</f>
+        <f t="shared" si="0"/>
         <v>150819-160114.BPT</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -932,7 +997,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f>_xlfn.CONCAT((TEXT(H6,"yymmdd")),"-",TEXT(I6,"yymmdd"),".BPT")</f>
+        <f t="shared" si="0"/>
         <v>160114-160526.BPT</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -968,7 +1033,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f>_xlfn.CONCAT((TEXT(H7,"yymmdd")),"-",TEXT(I7,"yymmdd"),".BPT")</f>
+        <f t="shared" si="0"/>
         <v>160526-160920.BPT</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1001,7 +1066,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f t="shared" ref="D3:D37" si="0">_xlfn.CONCAT((TEXT(H8,"yymmdd")),"-",TEXT(I8,"yymmdd"),".BPT")</f>
+        <f t="shared" ref="D8:D37" si="1">_xlfn.CONCAT((TEXT(H8,"yymmdd")),"-",TEXT(I8,"yymmdd"),".BPT")</f>
         <v>000100-000100.BPT</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -1025,7 +1090,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>000100-000100.BPT</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1049,7 +1114,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>000100-000100.BPT</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -1073,7 +1138,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>000100-000100.BPT</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1097,7 +1162,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>000100-000100.BPT</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1121,7 +1186,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>000100-000100.BPT</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1145,7 +1210,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>000100-000100.BPT</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -1169,7 +1234,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>000100-000100.BPT</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -1193,7 +1258,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>000100-000100.BPT</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -1217,7 +1282,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>000100-000100.BPT</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -1241,7 +1306,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>000100-000100.BPT</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -1265,7 +1330,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>000100-000100.BPT</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1289,7 +1354,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>000100-000100.BPT</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -1313,7 +1378,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>000100-000100.BPT</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -1337,7 +1402,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>000100-000100.BPT</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -1361,7 +1426,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>000100-000100.BPT</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -1385,7 +1450,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>000100-000100.BPT</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -1409,7 +1474,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>000100-000100.BPT</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -1433,7 +1498,7 @@
         <v>13</v>
       </c>
       <c r="D26" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>000100-000100.BPT</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -1457,7 +1522,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>000100-000100.BPT</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -1481,7 +1546,7 @@
         <v>13</v>
       </c>
       <c r="D28" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>000100-000100.BPT</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -1505,7 +1570,7 @@
         <v>13</v>
       </c>
       <c r="D29" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>000100-000100.BPT</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -1529,7 +1594,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>000100-000100.BPT</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -1553,7 +1618,7 @@
         <v>13</v>
       </c>
       <c r="D31" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>000100-000100.BPT</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -1577,7 +1642,7 @@
         <v>13</v>
       </c>
       <c r="D32" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>000100-000100.BPT</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -1601,7 +1666,7 @@
         <v>13</v>
       </c>
       <c r="D33" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>000100-000100.BPT</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -1625,7 +1690,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>000100-000100.BPT</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -1649,7 +1714,7 @@
         <v>13</v>
       </c>
       <c r="D35" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>000100-000100.BPT</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -1673,7 +1738,7 @@
         <v>13</v>
       </c>
       <c r="D36" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>000100-000100.BPT</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -1697,7 +1762,7 @@
         <v>13</v>
       </c>
       <c r="D37" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>000100-000100.BPT</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -1771,6 +1836,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B394E8E1-6745-4ABB-A8E0-7AB0C4989218}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2023,6 +2089,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA06B430-2A37-4338-9C20-9B8503287F26}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2167,6 +2234,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FD95CE-17AC-4249-9785-DDBE81B6A21B}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2240,7 +2308,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="2" t="str">
-        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".HKA")</f>
+        <f t="shared" ref="D2:D8" si="0">_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".HKA")</f>
         <v>071019-080216.HKA</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -2276,7 +2344,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f>_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".HKA")</f>
+        <f t="shared" si="0"/>
         <v>080224-080331.HKA</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -2312,7 +2380,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f>_xlfn.CONCAT((TEXT(H4,"yymmdd")),"-",TEXT(I4,"yymmdd"),".HKA")</f>
+        <f t="shared" si="0"/>
         <v>080410-080911.HKA</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -2348,7 +2416,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f>_xlfn.CONCAT((TEXT(H5,"yymmdd")),"-",TEXT(I5,"yymmdd"),".HKA")</f>
+        <f t="shared" si="0"/>
         <v>080923-090131.HKA</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -2384,7 +2452,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f>_xlfn.CONCAT((TEXT(H6,"yymmdd")),"-",TEXT(I6,"yymmdd"),".HKA")</f>
+        <f t="shared" si="0"/>
         <v>090204-090210.HKA</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -2420,7 +2488,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f>_xlfn.CONCAT((TEXT(H7,"yymmdd")),"-",TEXT(I7,"yymmdd"),".HKA")</f>
+        <f t="shared" si="0"/>
         <v>090204-090710.HKA</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -2456,7 +2524,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f>_xlfn.CONCAT((TEXT(H8,"yymmdd")),"-",TEXT(I8,"yymmdd"),".HKA")</f>
+        <f t="shared" si="0"/>
         <v>090809-100127.HKA</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -2491,6 +2559,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF9CC53-E005-4B84-8D91-A9D4169E996E}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2601,6 +2670,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B764E31D-F603-4D0E-A044-F9A472E7B50F}">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2711,6 +2781,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAE4255-4B76-42E8-A3B7-F414E583D5BE}">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2932,10 +3003,11 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D198F608-27DA-41E8-B2C7-65E0BA0F1237}">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3071,8 +3143,712 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95AD6EC-E535-4E59-BAB1-25A643775CDD}">
+  <sheetPr codeName="Sheet17"/>
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="16">
+        <v>39962</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="15" t="str">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".TKT")</f>
+        <v>090529-100114.TKT</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10">
+        <v>39962.75</v>
+      </c>
+      <c r="I2" s="10">
+        <v>40192.416666666664</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="1">
+        <v>39681</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="15" t="str">
+        <f t="shared" ref="D3:D5" si="0">_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".TKT")</f>
+        <v>080821-090304.TKT</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10">
+        <v>39681.75</v>
+      </c>
+      <c r="I3" s="10">
+        <v>39876.5</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="1">
+        <v>39169</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>070328-070908.TKT</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10">
+        <v>39169.541666666664</v>
+      </c>
+      <c r="I4" s="10">
+        <v>39333.625</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>39962</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="K5" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9C7758-5DFF-4C7C-9714-984C78547F45}">
+  <sheetPr codeName="Sheet18"/>
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="16">
+        <v>39640</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="15" t="str">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".TUR")</f>
+        <v>080711-080806.TUR</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10">
+        <v>39640.583333333336</v>
+      </c>
+      <c r="I2" s="10">
+        <v>39666.510416666664</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="1">
+        <v>38933</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="15" t="str">
+        <f t="shared" ref="D3:D6" si="0">_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".TUR")</f>
+        <v>060804-060824.TUR</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10">
+        <v>38933.75</v>
+      </c>
+      <c r="I3" s="10">
+        <v>38953.506944444445</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="1">
+        <v>39666</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>080806-080905.TUR</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10">
+        <v>39666.583333333336</v>
+      </c>
+      <c r="I4" s="10">
+        <v>39696.416666666664</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18ACC3C-05BF-4CC5-868F-966B25B7DD75}">
+  <sheetPr codeName="Sheet19"/>
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="16">
+        <v>40394</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="15" t="str">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".VP2_0202")</f>
+        <v>100804-110218.VP2_0202</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10">
+        <v>40394.583333333336</v>
+      </c>
+      <c r="I2" s="10">
+        <v>40592.75</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="1">
+        <v>40394</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="15" t="str">
+        <f>_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".VP3_0202")</f>
+        <v>100804-110218.VP3_0202</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10">
+        <v>40394.666666666664</v>
+      </c>
+      <c r="I3" s="10">
+        <v>40592.708333333336</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="1">
+        <v>40393</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15" t="str">
+        <f>_xlfn.CONCAT((TEXT(H4,"yymmdd")),"-",TEXT(I4,"yymmdd"),".VP1_0202")</f>
+        <v>100803-110109.VP1_0202</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10">
+        <v>40393.625</v>
+      </c>
+      <c r="I4" s="10">
+        <v>40552.125</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="1">
+        <v>40251</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="15" t="str">
+        <f>_xlfn.CONCAT((TEXT(H5,"yymmdd")),"-",TEXT(I5,"yymmdd"),".VP2_0101")</f>
+        <v>100314-100804.VP2_0101</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10">
+        <v>40251.666666666664</v>
+      </c>
+      <c r="I5" s="10">
+        <v>40394.541666666664</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="1">
+        <v>40251</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="15" t="str">
+        <f>_xlfn.CONCAT((TEXT(H6,"yymmdd")),"-",TEXT(I6,"yymmdd"),".VP3_0101")</f>
+        <v>100314-100803.VP3_0101</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10">
+        <v>40251.583333333336</v>
+      </c>
+      <c r="I6" s="10">
+        <v>40393.833333333336</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="1">
+        <v>40243</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="15" t="str">
+        <f>_xlfn.CONCAT((TEXT(H7,"yymmdd")),"-",TEXT(I7,"yymmdd"),".VP1_0101")</f>
+        <v>100306-100803.VP1_0101</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10">
+        <v>40243.75</v>
+      </c>
+      <c r="I7" s="10">
+        <v>40393.583333333336</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="1">
+        <v>40592</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="15" t="str">
+        <f>_xlfn.CONCAT((TEXT(H8,"yymmdd")),"-",TEXT(I8,"yymmdd"),".VP2_0303")</f>
+        <v>110218-110423.VP2_0303</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="10">
+        <v>40592.791666666664</v>
+      </c>
+      <c r="I8" s="10">
+        <v>40656.583333333336</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="J9" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115CF8BF-85CB-4E92-8DF4-7F951D0E2E82}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3760,8 +4536,607 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3375F74B-A16E-4A05-9D06-7AC824FA711D}">
+  <sheetPr codeName="Sheet20"/>
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="16">
+        <v>39485</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="15" t="str">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".NHS")</f>
+        <v>080207-080408.NHS</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10">
+        <v>39485.75</v>
+      </c>
+      <c r="I2" s="10">
+        <v>39546.458333333336</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1">
+        <v>39577</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="15" t="str">
+        <f t="shared" ref="D3:D8" si="0">_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".NHS")</f>
+        <v>080509-081118.NHS</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10">
+        <v>39577.666666666664</v>
+      </c>
+      <c r="I3" s="10">
+        <v>39770.458333333336</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.NHS</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.NHS</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.NHS</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.NHS</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.NHS</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="J9" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831A6657-DB7D-4981-A19F-A06A8152039E}">
+  <sheetPr codeName="Sheet21"/>
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="16">
+        <v>39500</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="15" t="str">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".SHS")</f>
+        <v>080222-080401.SHS</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10">
+        <v>39500.75</v>
+      </c>
+      <c r="I2" s="10">
+        <v>39539.602847222224</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="1">
+        <v>39540</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="15" t="str">
+        <f>_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".SHS")</f>
+        <v>080402-080630.SHS</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10">
+        <v>39540.75</v>
+      </c>
+      <c r="I3" s="10">
+        <v>39629.333333333336</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="1">
+        <v>39720</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15" t="str">
+        <f>_xlfn.CONCAT((TEXT(H4,"yymmdd")),"-",TEXT(I4,"yymmdd"),".SHS")</f>
+        <v>080929-090121.SHS</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10">
+        <v>39720.666666666664</v>
+      </c>
+      <c r="I4" s="10">
+        <v>39834.4375</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="1">
+        <v>39835</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="15" t="str">
+        <f>_xlfn.CONCAT((TEXT(H5,"yymmdd")),"-",TEXT(I5,"yymmdd"),".SHS")</f>
+        <v>090122-090508.SHS</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10">
+        <v>39835.75</v>
+      </c>
+      <c r="I5" s="10">
+        <v>39941.666666666664</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="17">
+        <v>39835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="15" t="str">
+        <f>_xlfn.CONCAT((TEXT(H6,"yymmdd")),"-",TEXT(I6,"yymmdd"),".SHS")</f>
+        <v>000100-000100.SHS</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="15" t="str">
+        <f>_xlfn.CONCAT((TEXT(H7,"yymmdd")),"-",TEXT(I7,"yymmdd"),".SHS")</f>
+        <v>000100-000100.SHS</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="15" t="str">
+        <f>_xlfn.CONCAT((TEXT(H8,"yymmdd")),"-",TEXT(I8,"yymmdd"),".SHS")</f>
+        <v>000100-000100.SHS</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="J9" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M8">
+    <sortCondition ref="B2:B8"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AE03C4-EA4D-4D50-9034-3F99398D975D}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4347,6 +5722,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9741E545-5A33-4298-BFB7-A5436CDC8B7E}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4522,7 +5898,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f t="shared" ref="D3:D22" si="0">_xlfn.CONCAT((TEXT(H5,"yymmdd")),"-",TEXT(I5,"yymmdd"),".CRN")</f>
+        <f t="shared" ref="D5:D22" si="0">_xlfn.CONCAT((TEXT(H5,"yymmdd")),"-",TEXT(I5,"yymmdd"),".CRN")</f>
         <v>000100-000100.CRN</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -4953,6 +6329,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6ED523-8A2C-4A5E-B64F-5359AAD7F448}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5092,7 +6469,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f t="shared" ref="D3:D17" si="0">_xlfn.CONCAT((TEXT(H4,"yymmdd")),"-",TEXT(I4,"yymmdd"),".FC1")</f>
+        <f t="shared" ref="D4:D17" si="0">_xlfn.CONCAT((TEXT(H4,"yymmdd")),"-",TEXT(I4,"yymmdd"),".FC1")</f>
         <v>000100-000100.FC1</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -5431,6 +6808,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE91813E-4418-4BB9-918D-F3F822F9944B}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5801,6 +7179,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B325909-2976-43DB-9407-8C8F67672D5F}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5940,7 +7319,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f t="shared" ref="D3:D15" si="0">_xlfn.CONCAT((TEXT(H4,"yymmdd")),"-",TEXT(I4,"yymmdd"),".FC3")</f>
+        <f t="shared" ref="D4:D15" si="0">_xlfn.CONCAT((TEXT(H4,"yymmdd")),"-",TEXT(I4,"yymmdd"),".FC3")</f>
         <v>000100-000100.FC3</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -6232,6 +7611,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273AEF76-A443-4C8C-8D53-05B44040AFD9}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6373,6 +7753,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07B88AD-D12F-4431-916B-49FF32B02804}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ADCP Deployment Log.xlsx
+++ b/ADCP Deployment Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\acdp-fuzzy-journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9630C5-9BE8-424F-8A2B-882CECED8990}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67588C07-1539-4C88-BF20-A07F5092902A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14280" yWindow="1140" windowWidth="19875" windowHeight="8820" firstSheet="9" activeTab="20" xr2:uid="{5913DBAB-AB29-4EF1-A0BF-6DAD8B6694B1}"/>
+    <workbookView xWindow="8625" yWindow="810" windowWidth="19170" windowHeight="8820" firstSheet="15" activeTab="25" xr2:uid="{5913DBAB-AB29-4EF1-A0BF-6DAD8B6694B1}"/>
   </bookViews>
   <sheets>
     <sheet name="BPT" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,25 @@
     <sheet name="FC1" sheetId="10" r:id="rId5"/>
     <sheet name="FC2" sheetId="6" r:id="rId6"/>
     <sheet name="FC3" sheetId="11" r:id="rId7"/>
-    <sheet name="HWE" sheetId="12" r:id="rId8"/>
-    <sheet name="HWW" sheetId="13" r:id="rId9"/>
-    <sheet name="LBH" sheetId="15" r:id="rId10"/>
-    <sheet name="MGN" sheetId="16" r:id="rId11"/>
-    <sheet name="HKA" sheetId="17" r:id="rId12"/>
-    <sheet name="Saba" sheetId="18" r:id="rId13"/>
-    <sheet name="SAR" sheetId="19" r:id="rId14"/>
-    <sheet name="SHR" sheetId="20" r:id="rId15"/>
-    <sheet name="SCP" sheetId="21" r:id="rId16"/>
-    <sheet name="TKT" sheetId="22" r:id="rId17"/>
-    <sheet name="TUR" sheetId="26" r:id="rId18"/>
-    <sheet name="VP#" sheetId="27" r:id="rId19"/>
-    <sheet name="NHS" sheetId="30" r:id="rId20"/>
-    <sheet name="SHS" sheetId="32" r:id="rId21"/>
+    <sheet name="FLC" sheetId="41" r:id="rId8"/>
+    <sheet name="HBE" sheetId="34" r:id="rId9"/>
+    <sheet name="HKA" sheetId="17" r:id="rId10"/>
+    <sheet name="HWE" sheetId="12" r:id="rId11"/>
+    <sheet name="HWW" sheetId="13" r:id="rId12"/>
+    <sheet name="LBH" sheetId="15" r:id="rId13"/>
+    <sheet name="MGN" sheetId="16" r:id="rId14"/>
+    <sheet name="MSX" sheetId="39" r:id="rId15"/>
+    <sheet name="NHS" sheetId="30" r:id="rId16"/>
+    <sheet name="SAR" sheetId="19" r:id="rId17"/>
+    <sheet name="SCP" sheetId="21" r:id="rId18"/>
+    <sheet name="SHR" sheetId="20" r:id="rId19"/>
+    <sheet name="SHS" sheetId="32" r:id="rId20"/>
+    <sheet name="SNA" sheetId="18" r:id="rId21"/>
+    <sheet name="TKT" sheetId="22" r:id="rId22"/>
+    <sheet name="TRM" sheetId="36" r:id="rId23"/>
+    <sheet name="TUR" sheetId="26" r:id="rId24"/>
+    <sheet name="VP#" sheetId="27" r:id="rId25"/>
+    <sheet name="VP# (2)" sheetId="43" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="109">
   <si>
     <t>Deployment Site</t>
   </si>
@@ -254,9 +259,6 @@
     <t>New lithium battery install 11/21/2005.  v=11.4.</t>
   </si>
   <si>
-    <t>Saba</t>
-  </si>
-  <si>
     <t>Sail Rock</t>
   </si>
   <si>
@@ -296,9 +298,6 @@
     <t>new battery volts = 12</t>
   </si>
   <si>
-    <t xml:space="preserve">                                      </t>
-  </si>
-  <si>
     <t>Turtle Point</t>
   </si>
   <si>
@@ -339,6 +338,51 @@
   </si>
   <si>
     <t>Second deployment of 1MHz AWAC Southside 25 meters target depth. 84 feet. $ hou</t>
+  </si>
+  <si>
+    <t>third deployment of 1MHz AWAC Southside 25 meters target depth 84 feet. 4 hour</t>
+  </si>
+  <si>
+    <t>Hind Bank</t>
+  </si>
+  <si>
+    <t>New alkaline battery installed 3/10/06</t>
+  </si>
+  <si>
+    <t>Saba Netherland Antilles</t>
+  </si>
+  <si>
+    <t>Mutton Snapper STX</t>
+  </si>
+  <si>
+    <t>Mutton Snapper STX deployment by Rick Nemeth on May 4th 2015</t>
+  </si>
+  <si>
+    <t>Flat Cay</t>
+  </si>
+  <si>
+    <t>ADCP deployment to Flat Cay 3/17/16 - Robert Brewer in charge</t>
+  </si>
+  <si>
+    <t>ADCP Ciguatera Flat Cay Deployment 8/19/2015</t>
+  </si>
+  <si>
+    <t>Flat Cay Ciguatera deployment 12/14/2015</t>
+  </si>
+  <si>
+    <t>Test Random Misc</t>
+  </si>
+  <si>
+    <t>3 deployment of Vieques Sound / Virgin Passage Transport Study. ADCP Mooring VP1</t>
+  </si>
+  <si>
+    <t>3 deployment of Vieques Sound / Virgin Passage Transport Study. ADCP Mooring VS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                     </t>
+  </si>
+  <si>
+    <t>3 deployment of Vieques Sound / Virgin Passage Transport Study. ADCP Mooring VS3</t>
   </si>
 </sst>
 </file>
@@ -349,7 +393,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,6 +421,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -442,10 +491,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -468,9 +518,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{3BCCAA14-234A-47D1-8B38-B66DDDAFB457}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1835,6 +1888,615 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FD95CE-17AC-4249-9785-DDBE81B6A21B}">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1">
+        <v>39374</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f t="shared" ref="D2:D8" si="0">_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".HKA")</f>
+        <v>071019-080216.HKA</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10">
+        <v>39374.75</v>
+      </c>
+      <c r="I2" s="10">
+        <v>39494.916666666664</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1">
+        <v>39502</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>080224-080331.HKA</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10">
+        <v>39502.541666666664</v>
+      </c>
+      <c r="I3" s="10">
+        <v>39538.076388888891</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1">
+        <v>39548</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>080410-080911.HKA</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10">
+        <v>39548.75</v>
+      </c>
+      <c r="I4" s="10">
+        <v>39702.479166666664</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1">
+        <v>39714</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>080923-090131.HKA</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10">
+        <v>39714.5625</v>
+      </c>
+      <c r="I5" s="10">
+        <v>39844.458333333336</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="1">
+        <v>39848</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>090204-090210.HKA</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10">
+        <v>39848.75</v>
+      </c>
+      <c r="I6" s="10">
+        <v>39854.375</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1">
+        <v>39848</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>090204-090710.HKA</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10">
+        <v>39848.75</v>
+      </c>
+      <c r="I7" s="10">
+        <v>40004.958333333336</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1">
+        <v>40034</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>090809-100127.HKA</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="10">
+        <v>40034.75</v>
+      </c>
+      <c r="I8" s="10">
+        <v>40205.333333333336</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M8">
+    <sortCondition ref="D2:D8"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273AEF76-A443-4C8C-8D53-05B44040AFD9}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="1">
+        <v>38933</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".HWE")</f>
+        <v>060804-060824.HWE</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10">
+        <v>38933.75</v>
+      </c>
+      <c r="I2" s="10">
+        <v>38953.440972222219</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1">
+        <v>38953</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".HWE")</f>
+        <v>060824-060919.HWE</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10">
+        <v>38953.541666666664</v>
+      </c>
+      <c r="I3" s="10">
+        <v>38979.53125</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M3">
+    <sortCondition ref="D2:D3"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07B88AD-D12F-4431-916B-49FF32B02804}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1">
+        <v>38933</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".HWW")</f>
+        <v>060804-060824.HWW</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10">
+        <v>38933.75</v>
+      </c>
+      <c r="I2" s="10">
+        <v>38953.458333333336</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1">
+        <v>38953</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".HWW")</f>
+        <v>060824-060919.HWW</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10">
+        <v>38953.541666666664</v>
+      </c>
+      <c r="I3" s="10">
+        <v>38979.541666666664</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M3">
+    <sortCondition ref="D2:D3"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B394E8E1-6745-4ABB-A8E0-7AB0C4989218}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:M6"/>
@@ -2087,7 +2749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA06B430-2A37-4338-9C20-9B8503287F26}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:M3"/>
@@ -2232,21 +2894,288 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FD95CE-17AC-4249-9785-DDBE81B6A21B}">
-  <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:M8"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8340F6-2BE9-4D5F-A20B-A7235FAA32F2}">
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M8"/>
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="18" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" style="18" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="18" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="18" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="16">
+        <v>42128</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="15" t="str">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".MSX")</f>
+        <v>150505-151002.MSX</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10">
+        <v>42129.916666666664</v>
+      </c>
+      <c r="I2" s="10">
+        <v>42279.833333333336</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="15" t="str">
+        <f>_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".MSX")</f>
+        <v>000100-000100.MSX</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15" t="str">
+        <f t="shared" ref="D3:D8" si="0">_xlfn.CONCAT((TEXT(H4,"yymmdd")),"-",TEXT(I4,"yymmdd"),".HBE")</f>
+        <v>000100-000100.HBE</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.HBE</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.HBE</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.HBE</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.HBE</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="J9" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3375F74B-A16E-4A05-9D06-7AC824FA711D}">
+  <sheetPr codeName="Sheet20"/>
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" style="2" customWidth="1"/>
@@ -2297,55 +3226,55 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="1">
-        <v>39374</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="str">
-        <f t="shared" ref="D2:D8" si="0">_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".HKA")</f>
-        <v>071019-080216.HKA</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
+    <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="16">
+        <v>39485</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="15" t="str">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".NHS")</f>
+        <v>080207-080408.NHS</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="10">
-        <v>39374.75</v>
+        <v>39485.75</v>
       </c>
       <c r="I2" s="10">
-        <v>39494.916666666664</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>63</v>
+        <v>39546.458333333336</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>59</v>
+      <c r="A3" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="B3" s="1">
-        <v>39502</v>
+        <v>39577</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>080224-080331.HKA</v>
+      <c r="D3" s="15" t="str">
+        <f t="shared" ref="D3:D8" si="0">_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".NHS")</f>
+        <v>080509-081118.NHS</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>13</v>
@@ -2357,318 +3286,169 @@
         <v>13</v>
       </c>
       <c r="H3" s="10">
-        <v>39502.541666666664</v>
+        <v>39577.666666666664</v>
       </c>
       <c r="I3" s="10">
-        <v>39538.076388888891</v>
+        <v>39770.458333333336</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>60</v>
+      <c r="K3" s="15" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="1">
-        <v>39548</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>080410-080911.HKA</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="10">
-        <v>39548.75</v>
-      </c>
-      <c r="I4" s="10">
-        <v>39702.479166666664</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>60</v>
+      <c r="A4" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.NHS</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="1">
-        <v>39714</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>080923-090131.HKA</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="10">
-        <v>39714.5625</v>
-      </c>
-      <c r="I5" s="10">
-        <v>39844.458333333336</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>62</v>
+      <c r="A5" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.NHS</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="1">
-        <v>39848</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>090204-090210.HKA</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="10">
-        <v>39848.75</v>
-      </c>
-      <c r="I6" s="10">
-        <v>39854.375</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>65</v>
+      <c r="A6" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.NHS</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="1">
-        <v>39848</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>090204-090710.HKA</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="10">
-        <v>39848.75</v>
-      </c>
-      <c r="I7" s="10">
-        <v>40004.958333333336</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>61</v>
+      <c r="A7" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.NHS</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="1">
-        <v>40034</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>090809-100127.HKA</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="10">
-        <v>40034.75</v>
-      </c>
-      <c r="I8" s="10">
-        <v>40205.333333333336</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>64</v>
+      <c r="A8" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.NHS</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="J9" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M8">
-    <sortCondition ref="D2:D8"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF9CC53-E005-4B84-8D91-A9D4169E996E}">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:M3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C7:C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="15.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="1">
-        <v>38698</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="str">
-        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".SABA")</f>
-        <v>051213-060212.SABA</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="10">
-        <v>38699.6875</v>
-      </c>
-      <c r="I2" s="10">
-        <v>38760.458333333336</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B764E31D-F603-4D0E-A044-F9A472E7B50F}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:M3"/>
@@ -2735,7 +3515,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1">
         <v>42626</v>
@@ -2766,7 +3546,7 @@
         <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2779,7 +3559,149 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D198F608-27DA-41E8-B2C7-65E0BA0F1237}">
+  <sheetPr codeName="Sheet16"/>
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="12">
+        <v>41125</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="11" t="str">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".SCP")</f>
+        <v>120804-120819.SCP</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="13">
+        <v>41125</v>
+      </c>
+      <c r="I2" s="13">
+        <v>41140.663854166669</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1">
+        <v>41153</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".SCP")</f>
+        <v>120901-120915.SCP</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10">
+        <v>41153.75</v>
+      </c>
+      <c r="I3" s="10">
+        <v>41167.288807870369</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAE4255-4B76-42E8-A3B7-F414E583D5BE}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:M6"/>
@@ -2846,7 +3768,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1">
         <v>42235</v>
@@ -2877,12 +3799,12 @@
         <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1">
         <v>42388</v>
@@ -2913,12 +3835,12 @@
         <v>24</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1">
         <v>42521</v>
@@ -2949,12 +3871,12 @@
         <v>24</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="1">
         <v>42713</v>
@@ -2985,7 +3907,7 @@
         <v>24</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -3001,19 +3923,1026 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D198F608-27DA-41E8-B2C7-65E0BA0F1237}">
-  <sheetPr codeName="Sheet16"/>
-  <dimension ref="A1:M3"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115CF8BF-85CB-4E92-8DF4-7F951D0E2E82}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="38.28515625" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1">
+        <v>39024</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".BWR")</f>
+        <v>061103-061121.BWR</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10">
+        <v>39024.75</v>
+      </c>
+      <c r="I2" s="10">
+        <v>39042.666666666664</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="12">
+        <v>42170</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="11" t="str">
+        <f t="shared" ref="D3:D26" si="0">_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".BWR")</f>
+        <v>150615-150625.BWR</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="13">
+        <v>42170.875</v>
+      </c>
+      <c r="I3" s="13">
+        <v>42180.708333333336</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.BWR</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831A6657-DB7D-4981-A19F-A06A8152039E}">
+  <sheetPr codeName="Sheet21"/>
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="16">
+        <v>39500</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="15" t="str">
+        <f t="shared" ref="D2:D8" si="0">_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".SHS")</f>
+        <v>080222-080401.SHS</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10">
+        <v>39500.75</v>
+      </c>
+      <c r="I2" s="10">
+        <v>39539.602847222224</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1">
+        <v>39540</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>080402-080630.SHS</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10">
+        <v>39540.75</v>
+      </c>
+      <c r="I3" s="10">
+        <v>39629.333333333336</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="1">
+        <v>39720</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>080929-090121.SHS</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10">
+        <v>39720.666666666664</v>
+      </c>
+      <c r="I4" s="10">
+        <v>39834.4375</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="1">
+        <v>39835</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>090122-090508.SHS</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10">
+        <v>39835.75</v>
+      </c>
+      <c r="I5" s="10">
+        <v>39941.666666666664</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="17">
+        <v>39835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="1">
+        <v>39631</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>080703-080923.SHS</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10">
+        <v>39632.395833333336</v>
+      </c>
+      <c r="I6" s="10">
+        <v>39714.479166666664</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.SHS</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.SHS</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="J9" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M8">
+    <sortCondition ref="B2:B8"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF9CC53-E005-4B84-8D91-A9D4169E996E}">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="19" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.140625" style="2" customWidth="1"/>
@@ -3066,84 +4995,57 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="12">
-        <v>41125</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="11" t="str">
-        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".SCP")</f>
-        <v>120804-120819.SCP</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="13">
-        <v>41125</v>
-      </c>
-      <c r="I2" s="13">
-        <v>41140.663854166669</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>42</v>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="1">
+        <v>38698</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".SNA")</f>
+        <v>051213-060212.SNA</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10">
+        <v>38699.6875</v>
+      </c>
+      <c r="I2" s="10">
+        <v>38760.458333333336</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="1">
-        <v>41153</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <f>_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".SCP")</f>
-        <v>120901-120915.SCP</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="10">
-        <v>41153.75</v>
-      </c>
-      <c r="I3" s="10">
-        <v>41167.288807870369</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="A3" s="19"/>
+      <c r="B3" s="1"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95AD6EC-E535-4E59-BAB1-25A643775CDD}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:M5"/>
@@ -3210,7 +5112,7 @@
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="16">
         <v>39962</v>
@@ -3241,12 +5143,12 @@
         <v>24</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1">
         <v>39681</v>
@@ -3255,7 +5157,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="15" t="str">
-        <f t="shared" ref="D3:D5" si="0">_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".TKT")</f>
+        <f t="shared" ref="D3:D4" si="0">_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".TKT")</f>
         <v>080821-090304.TKT</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -3277,12 +5179,12 @@
         <v>24</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1">
         <v>39169</v>
@@ -3313,7 +5215,7 @@
         <v>24</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -3322,7 +5224,7 @@
       </c>
       <c r="D5" s="15"/>
       <c r="K5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3330,7 +5232,274 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9390A8-B732-4633-B3AB-470D524426C0}">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="16">
+        <v>38787</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="15" t="str">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".TRM")</f>
+        <v>060311-060615.TRM</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10">
+        <v>38787.75</v>
+      </c>
+      <c r="I2" s="10">
+        <v>38883.541666666664</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="15" t="str">
+        <f t="shared" ref="D3:D8" si="0">_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".HBE")</f>
+        <v>000100-000100.HBE</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.HBE</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.HBE</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.HBE</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.HBE</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.HBE</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="J9" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9C7758-5DFF-4C7C-9714-984C78547F45}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:M6"/>
@@ -3397,7 +5566,7 @@
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" s="16">
         <v>39640</v>
@@ -3433,7 +5602,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" s="1">
         <v>38933</v>
@@ -3442,7 +5611,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="15" t="str">
-        <f t="shared" ref="D3:D6" si="0">_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".TUR")</f>
+        <f t="shared" ref="D3:D4" si="0">_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".TUR")</f>
         <v>060804-060824.TUR</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -3469,7 +5638,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1">
         <v>39666</v>
@@ -3500,7 +5669,7 @@
         <v>24</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -3514,7 +5683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18ACC3C-05BF-4CC5-868F-966B25B7DD75}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:M9"/>
@@ -3581,7 +5750,7 @@
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="16">
         <v>40394</v>
@@ -3612,12 +5781,12 @@
         <v>24</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1">
         <v>40394</v>
@@ -3648,12 +5817,12 @@
         <v>24</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" s="1">
         <v>40393</v>
@@ -3684,12 +5853,12 @@
         <v>24</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B5" s="1">
         <v>40251</v>
@@ -3720,12 +5889,12 @@
         <v>24</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B6" s="1">
         <v>40251</v>
@@ -3756,12 +5925,12 @@
         <v>24</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B7" s="1">
         <v>40243</v>
@@ -3792,12 +5961,12 @@
         <v>24</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" s="1">
         <v>40592</v>
@@ -3828,7 +5997,7 @@
         <v>24</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -3846,24 +6015,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115CF8BF-85CB-4E92-8DF4-7F951D0E2E82}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:M26"/>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A41487B-D5D9-41D8-B0C2-2D1668FE2AF4}">
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="38.28515625" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="18" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" style="18" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="18" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="18" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -3871,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -3907,783 +6079,93 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1">
-        <v>39024</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="str">
-        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".BWR")</f>
-        <v>061103-061121.BWR</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="10">
-        <v>39024.75</v>
-      </c>
-      <c r="I2" s="10">
-        <v>39042.666666666664</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="12">
-        <v>42170</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="11" t="str">
-        <f t="shared" ref="D3:D26" si="0">_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".BWR")</f>
-        <v>150615-150625.BWR</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="13">
-        <v>42170.875</v>
-      </c>
-      <c r="I3" s="13">
-        <v>42180.708333333336</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>000100-000100.BWR</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>000100-000100.BWR</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>000100-000100.BWR</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>000100-000100.BWR</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>000100-000100.BWR</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>000100-000100.BWR</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>000100-000100.BWR</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>000100-000100.BWR</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>000100-000100.BWR</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>000100-000100.BWR</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>000100-000100.BWR</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>000100-000100.BWR</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>000100-000100.BWR</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>000100-000100.BWR</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>000100-000100.BWR</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>000100-000100.BWR</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>000100-000100.BWR</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>000100-000100.BWR</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>000100-000100.BWR</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>000100-000100.BWR</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>000100-000100.BWR</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>000100-000100.BWR</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>000100-000100.BWR</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3375F74B-A16E-4A05-9D06-7AC824FA711D}">
-  <sheetPr codeName="Sheet20"/>
-  <dimension ref="A1:M9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="15.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="16">
-        <v>39485</v>
-      </c>
-      <c r="C2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="1">
+        <v>40242</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="15" t="str">
-        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".NHS")</f>
-        <v>080207-080408.NHS</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="15" t="s">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".VS1_0101")</f>
+        <v>100305-100802.VS1_0101</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="10">
-        <v>39485.75</v>
+        <v>40242.916666666664</v>
       </c>
       <c r="I2" s="10">
-        <v>39546.458333333336</v>
-      </c>
-      <c r="J2" s="15" t="s">
+        <v>40392.833333333336</v>
+      </c>
+      <c r="J2" s="18" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>89</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1">
-        <v>39577</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>40242</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="15" t="str">
-        <f t="shared" ref="D3:D8" si="0">_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".NHS")</f>
-        <v>080509-081118.NHS</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
+        <f>_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".VS3_0101")</f>
+        <v>100306-100802.VS3_0101</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="10">
-        <v>39577.666666666664</v>
+        <v>40243.666666666664</v>
       </c>
       <c r="I3" s="10">
-        <v>39770.458333333336</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>91</v>
+        <v>40392.666666666664</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="B4" s="1">
+        <v>40243</v>
+      </c>
       <c r="C4" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>000100-000100.NHS</v>
+        <f>_xlfn.CONCAT((TEXT(H4,"yymmdd")),"-",TEXT(I4,"yymmdd"),".VS2_0101")</f>
+        <v>100306-100802.VS2_0101</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>13</v>
@@ -4694,23 +6176,32 @@
       <c r="G4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="H4" s="10">
+        <v>40243.541666666664</v>
+      </c>
+      <c r="I4" s="10">
+        <v>40392.875</v>
+      </c>
       <c r="J4" s="15" t="s">
         <v>24</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="B5" s="16">
+        <v>40392</v>
+      </c>
       <c r="C5" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>000100-000100.NHS</v>
+        <f>_xlfn.CONCAT((TEXT(H5,"yymmdd")),"-",TEXT(I5,"yymmdd"),".VS2_0201")</f>
+        <v>100802-110108.VS2_0201</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>13</v>
@@ -4721,23 +6212,34 @@
       <c r="G5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="H5" s="10">
+        <v>40392.916666666664</v>
+      </c>
+      <c r="I5" s="10">
+        <v>40551.583333333336</v>
+      </c>
       <c r="J5" s="15" t="s">
         <v>24</v>
       </c>
+      <c r="K5" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="B6" s="1">
+        <v>40591</v>
+      </c>
       <c r="C6" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>000100-000100.NHS</v>
+        <f>_xlfn.CONCAT((TEXT(H6,"yymmdd")),"-",TEXT(I6,"yymmdd"),".VS1_0301")</f>
+        <v>110217-110422.VS1_0301</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>13</v>
@@ -4748,23 +6250,32 @@
       <c r="G6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="H6" s="10">
+        <v>40591.833333333336</v>
+      </c>
+      <c r="I6" s="10">
+        <v>40655.666666666664</v>
+      </c>
       <c r="J6" s="15" t="s">
         <v>24</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="B7" s="1">
+        <v>40591</v>
+      </c>
       <c r="C7" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>000100-000100.NHS</v>
+        <f>_xlfn.CONCAT((TEXT(H7,"yymmdd")),"-",TEXT(I7,"yymmdd"),".VS2_0301")</f>
+        <v>110218-110422.VS2_0301</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>13</v>
@@ -4775,23 +6286,32 @@
       <c r="G7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="H7" s="10">
+        <v>40592.666666666664</v>
+      </c>
+      <c r="I7" s="10">
+        <v>40655.583333333336</v>
+      </c>
       <c r="J7" s="15" t="s">
         <v>24</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="B8" s="1">
+        <v>40591</v>
+      </c>
       <c r="C8" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>000100-000100.NHS</v>
+        <f>_xlfn.CONCAT((TEXT(H8,"yymmdd")),"-",TEXT(I8,"yymmdd"),".VS3_0301")</f>
+        <v>110217-110421.VS3_0301</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>13</v>
@@ -4802,10 +6322,17 @@
       <c r="G8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="H8" s="10">
+        <v>40591.791666666664</v>
+      </c>
+      <c r="I8" s="10">
+        <v>40654.25</v>
+      </c>
       <c r="J8" s="15" t="s">
         <v>24</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -4816,313 +6343,8 @@
       <c r="J9" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831A6657-DB7D-4981-A19F-A06A8152039E}">
-  <sheetPr codeName="Sheet21"/>
-  <dimension ref="A1:M9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="15.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="16">
-        <v>39500</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="15" t="str">
-        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".SHS")</f>
-        <v>080222-080401.SHS</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="10">
-        <v>39500.75</v>
-      </c>
-      <c r="I2" s="10">
-        <v>39539.602847222224</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="1">
-        <v>39540</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="15" t="str">
-        <f>_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".SHS")</f>
-        <v>080402-080630.SHS</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="10">
-        <v>39540.75</v>
-      </c>
-      <c r="I3" s="10">
-        <v>39629.333333333336</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="1">
-        <v>39720</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="15" t="str">
-        <f>_xlfn.CONCAT((TEXT(H4,"yymmdd")),"-",TEXT(I4,"yymmdd"),".SHS")</f>
-        <v>080929-090121.SHS</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="10">
-        <v>39720.666666666664</v>
-      </c>
-      <c r="I4" s="10">
-        <v>39834.4375</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="1">
-        <v>39835</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="15" t="str">
-        <f>_xlfn.CONCAT((TEXT(H5,"yymmdd")),"-",TEXT(I5,"yymmdd"),".SHS")</f>
-        <v>090122-090508.SHS</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="10">
-        <v>39835.75</v>
-      </c>
-      <c r="I5" s="10">
-        <v>39941.666666666664</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="17">
-        <v>39835</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="15" t="str">
-        <f>_xlfn.CONCAT((TEXT(H6,"yymmdd")),"-",TEXT(I6,"yymmdd"),".SHS")</f>
-        <v>000100-000100.SHS</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="15" t="str">
-        <f>_xlfn.CONCAT((TEXT(H7,"yymmdd")),"-",TEXT(I7,"yymmdd"),".SHS")</f>
-        <v>000100-000100.SHS</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="15" t="str">
-        <f>_xlfn.CONCAT((TEXT(H8,"yymmdd")),"-",TEXT(I8,"yymmdd"),".SHS")</f>
-        <v>000100-000100.SHS</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="J9" s="15" t="s">
-        <v>24</v>
+      <c r="K9" s="18" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -7610,24 +8832,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273AEF76-A443-4C8C-8D53-05B44040AFD9}">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C18C2C-F80F-421C-AAA2-9F5D5B5124D4}">
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="18" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" style="18" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="18" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="18" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -7671,105 +8895,256 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="1">
-        <v>38933</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="str">
-        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".HWE")</f>
-        <v>060804-060824.HWE</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
+    <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="16">
+        <v>42128</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="15" t="str">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".FLC")</f>
+        <v>160317-160717.FLC</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="10">
-        <v>38933.75</v>
+        <v>42446.588946759257</v>
       </c>
       <c r="I2" s="10">
-        <v>38953.440972222219</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
+        <v>42568.672280092593</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>49</v>
+      <c r="A3" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="B3" s="1">
-        <v>38953</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <f>_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".HWE")</f>
-        <v>060824-060919.HWE</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
+        <v>42235</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="15" t="str">
+        <f>_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".FLC")</f>
+        <v>150819-151208.FLC</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="10">
-        <v>38953.541666666664</v>
+        <v>42235.708333333336</v>
       </c>
       <c r="I3" s="10">
-        <v>38979.53125</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>45</v>
+        <v>42346.583333333336</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42352</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15" t="str">
+        <f>_xlfn.CONCAT((TEXT(H4,"yymmdd")),"-",TEXT(I4,"yymmdd"),".FLC")</f>
+        <v>151214-160315.FLC</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10">
+        <v>42352.666666666664</v>
+      </c>
+      <c r="I4" s="10">
+        <v>42444.75</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="15" t="str">
+        <f t="shared" ref="D3:D8" si="0">_xlfn.CONCAT((TEXT(H5,"yymmdd")),"-",TEXT(I5,"yymmdd"),".FLC")</f>
+        <v>000100-000100.FLC</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.FLC</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.FLC</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.FLC</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="J9" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M3">
-    <sortCondition ref="D2:D3"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M4">
+    <sortCondition ref="B2:B4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07B88AD-D12F-4431-916B-49FF32B02804}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A312589-18E8-4359-A222-F9E8E771298F}">
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -7813,82 +9188,205 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="1">
-        <v>38933</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="str">
-        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".HWW")</f>
-        <v>060804-060824.HWW</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
+    <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="16">
+        <v>38392</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="15" t="str">
+        <f>_xlfn.CONCAT((TEXT(H2,"yymmdd")),"-",TEXT(I2,"yymmdd"),".HBE")</f>
+        <v>050209-050416.HBE</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="10">
-        <v>38933.75</v>
+        <v>38392.75</v>
       </c>
       <c r="I2" s="10">
-        <v>38953.458333333336</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>47</v>
+        <v>38458.604166666664</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="1">
-        <v>38953</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <f>_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".HWW")</f>
-        <v>060824-060919.HWW</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="10">
-        <v>38953.541666666664</v>
-      </c>
-      <c r="I3" s="10">
-        <v>38979.541666666664</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>45</v>
+      <c r="A3" s="15"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="15" t="str">
+        <f t="shared" ref="D3:D8" si="0">_xlfn.CONCAT((TEXT(H3,"yymmdd")),"-",TEXT(I3,"yymmdd"),".HBE")</f>
+        <v>000100-000100.HBE</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.HBE</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.HBE</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.HBE</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.HBE</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>000100-000100.HBE</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="J9" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M3">
-    <sortCondition ref="D2:D3"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>